--- a/plagiarism-detector/src/test/resources/train-data.xlsx
+++ b/plagiarism-detector/src/test/resources/train-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C57671DA-8747-4DCC-B5DB-03708EFF9246}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A90FCAD-B7CC-4E1A-80A7-D8D6B20E8071}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15200" windowHeight="6960" xr2:uid="{808A14C9-E852-4585-8700-A327F222640F}"/>
   </bookViews>
@@ -22,6 +22,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F04615F-91FA-46EE-BEAC-4D28E635FFF0}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
@@ -395,7 +399,7 @@
         <v>0.39</v>
       </c>
       <c r="B2">
-        <v>0.95</v>
+        <v>0.311</v>
       </c>
       <c r="C2">
         <v>0.35</v>
@@ -403,10 +407,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>0.45</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="B3">
-        <v>0.94</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="C3">
         <v>0.28000000000000003</v>
@@ -414,10 +418,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="B4">
-        <v>0.84</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="C4">
         <v>0.25</v>
@@ -425,10 +429,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>1.4E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="B5">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0.27</v>
@@ -439,7 +443,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="B6">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0.22</v>
@@ -447,10 +451,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>0.28000000000000003</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="B7">
-        <v>0.79</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="C7">
         <v>0.19</v>
@@ -458,10 +462,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="B8">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0.2</v>
@@ -469,10 +473,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>0.379</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="C9">
         <v>0.2</v>
@@ -480,10 +484,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>0.19400000000000001</v>
+        <v>0.182</v>
       </c>
       <c r="B10">
-        <v>0.95</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="C10">
         <v>0.18</v>
@@ -494,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0.94</v>
@@ -502,10 +506,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>0.09</v>
+        <v>2E-3</v>
       </c>
       <c r="B12">
-        <v>0.96</v>
+        <v>3.9E-2</v>
       </c>
       <c r="C12">
         <v>0.2</v>
@@ -513,10 +517,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>4.1000000000000002E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="B13">
-        <v>0.89</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="C13">
         <v>0.2</v>
@@ -527,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0.14000000000000001</v>
@@ -535,10 +539,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>6.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="B15">
-        <v>0.7</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="C15">
         <v>0.15</v>
@@ -546,10 +550,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>9.6000000000000002E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="B16">
-        <v>0.82899999999999996</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="C16">
         <v>0.15</v>
@@ -557,10 +561,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="B17">
-        <v>0.67100000000000004</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="C17">
         <v>0.11</v>
@@ -568,13 +572,24 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>2.5000000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="B18">
-        <v>0.69</v>
+        <v>0.105</v>
       </c>
       <c r="C18">
         <v>0.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
